--- a/Datos/Anuario2024/140105_EventosDeportivos.xlsx
+++ b/Datos/Anuario2024/140105_EventosDeportivos.xlsx
@@ -1,124 +1,889 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="827" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="827"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="0" sheetId="32" r:id="rId1"/>
+    <sheet name="1" sheetId="31" r:id="rId2"/>
+    <sheet name="2" sheetId="13" r:id="rId3"/>
+    <sheet name="3" sheetId="12" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_R1_3" localSheetId="0">#REF!</definedName>
     <definedName name="_R1_3">#REF!</definedName>
+    <definedName name="_R1_4" localSheetId="0">#REF!</definedName>
     <definedName name="_R1_4">#REF!</definedName>
+    <definedName name="_R2_1" localSheetId="0">#REF!</definedName>
     <definedName name="_R2_1">#REF!</definedName>
+    <definedName name="_R2_2" localSheetId="0">#REF!</definedName>
     <definedName name="_R2_2">#REF!</definedName>
+    <definedName name="_R2_3" localSheetId="0">#REF!</definedName>
     <definedName name="_R2_3">#REF!</definedName>
     <definedName name="_R2_4">'[1]4.5'!$A$1:$H$6</definedName>
     <definedName name="_R2_5">'[1]4.6'!$A$1:$C$6</definedName>
+    <definedName name="_R3_3" localSheetId="0">#REF!</definedName>
     <definedName name="_R3_3">#REF!</definedName>
     <definedName name="_R3_5">'[2]9.5'!$A$1:$H$7</definedName>
     <definedName name="_R3_6">'[2]9.6'!$A$1:$F$7</definedName>
+    <definedName name="_R3_7" localSheetId="0">#REF!</definedName>
     <definedName name="_R3_7">#REF!</definedName>
     <definedName name="_R3_8">'[2]9.7'!$A$1:$F$7</definedName>
     <definedName name="_R3_9">'[2]9.8'!$A$1:$F$18</definedName>
+    <definedName name="_R4_3" localSheetId="0">#REF!</definedName>
     <definedName name="_R4_3">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="0">#REF!</definedName>
     <definedName name="_R4_4">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="0">#REF!</definedName>
     <definedName name="_R4_7">#REF!</definedName>
+    <definedName name="_R5_8" localSheetId="0">#REF!</definedName>
     <definedName name="_R5_8">#REF!</definedName>
+    <definedName name="_R8_1" localSheetId="0">#REF!</definedName>
     <definedName name="_R8_1">#REF!</definedName>
-    <definedName name="_R1_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R1_4" localSheetId="0">#REF!</definedName>
-    <definedName name="_R2_1" localSheetId="0">#REF!</definedName>
-    <definedName name="_R2_2" localSheetId="0">#REF!</definedName>
-    <definedName name="_R2_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R3_7" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="0">#REF!</definedName>
-    <definedName name="_R5_8" localSheetId="0">#REF!</definedName>
-    <definedName name="_R8_1" localSheetId="0">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="251">
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Participantes</t>
+  </si>
+  <si>
+    <t>Evento</t>
+  </si>
+  <si>
+    <t>Lugar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuente: Fundación Deportiva Municipal. Ayuntamiento de València. </t>
+  </si>
+  <si>
+    <t>Fuente: Fundación Deportiva Municipal. Ayuntamiento de València.</t>
+  </si>
+  <si>
+    <t>EVENTOS DEPORTIVOS</t>
+  </si>
+  <si>
+    <t>2. Carreras Populares en València. 2023</t>
+  </si>
+  <si>
+    <t>Pinedo</t>
+  </si>
+  <si>
+    <t>Castellar</t>
+  </si>
+  <si>
+    <t>CDC Petxina</t>
+  </si>
+  <si>
+    <t>Beach Voley Training Camp</t>
+  </si>
+  <si>
+    <t>3. Otros eventos deportivos organizados o con participación de la FDM. 2023</t>
+  </si>
+  <si>
+    <t>Concentración Judo Año Nuevo (ABS, CAD, INF)</t>
+  </si>
+  <si>
+    <t>Campeonato autonómico por clubes absoluto - Atletismo en pista cubierta</t>
+  </si>
+  <si>
+    <t>Autonómico de trial grappling, sambo y luchas olímpicas</t>
+  </si>
+  <si>
+    <t>Autonómico de judo (INF-CAD)</t>
+  </si>
+  <si>
+    <t>VII Semana Valenciana - Vuelta Comunidad Valenciana Mujeres</t>
+  </si>
+  <si>
+    <t>Gran Premio de Atletismo en pista cubierta "Ciudad de València 2023"</t>
+  </si>
+  <si>
+    <t>Autonómico Universitario Judo (Absoluto)</t>
+  </si>
+  <si>
+    <t>Va de Dona 2023</t>
+  </si>
+  <si>
+    <t>Winter Internacional Beisbol. Academia de tecnificación Regensburg (Alemania), A. T Toulouse (Francia)</t>
+  </si>
+  <si>
+    <t>IX Jocs Taronja</t>
+  </si>
+  <si>
+    <t>Campeonato Comunidad Valenciana Ciclismo en pista</t>
+  </si>
+  <si>
+    <t>XII Trofeo Ciclismo Social Pinedo y XXV Memorial Don Manuel González</t>
+  </si>
+  <si>
+    <t>XV Trofeo Escuelas Ciclismo FDM València</t>
+  </si>
+  <si>
+    <t>VII Regata Liga Suma, 4ª regata ciudad de València</t>
+  </si>
+  <si>
+    <t>Máster bádminton absoluto ciudad de València</t>
+  </si>
+  <si>
+    <t>Valencia Cup Girls (Fútbol femenino)</t>
+  </si>
+  <si>
+    <t>Campeonato C. Valenciana de Cometas acrobáticas</t>
+  </si>
+  <si>
+    <t>Trofeo ciclista U.C. Castellar</t>
+  </si>
+  <si>
+    <t>Predator Grand Prix Women 3 Cushion "Ciudad de València" (Billar)</t>
+  </si>
+  <si>
+    <t>Gravel Augusta</t>
+  </si>
+  <si>
+    <t>Salida MTB Mitic Bike</t>
+  </si>
+  <si>
+    <t>Meeting València Beach Volley</t>
+  </si>
+  <si>
+    <t>VIII Trofeo de bádminton Ciudad de València</t>
+  </si>
+  <si>
+    <t>18ª marcha cicloturista "Ciudad de València"</t>
+  </si>
+  <si>
+    <t>III Mitin internacional David Casinos Atletismo adaptado</t>
+  </si>
+  <si>
+    <t>XV Trofeo de Bailes estándar y latinos "Ciudad de València"</t>
+  </si>
+  <si>
+    <t>Trofeo San Juan Mixto Voley playa</t>
+  </si>
+  <si>
+    <t>XXIII Trofeo SM La Reina – Regata homenaje a la Armada – XXXIII Copa Almirante Marcial Sánchez- Barcáiztegui (primera entrega, en el marco de la double handed off-shore (regata altura A2), regata puntuable para el circuito mediterráneo)</t>
+  </si>
+  <si>
+    <t>XXIII Trofeo SM La Reina – Regata homenaje a la Armada – XXXIII Copa Almirante Marcial Sánchez- Barcáiztegui (en su formato habitual inshore (barlovento - sotavento) con las clases orc, orc promoción y la clase J80 que celebra su copa de España)</t>
+  </si>
+  <si>
+    <t>Taronja Games 2023</t>
+  </si>
+  <si>
+    <t>Festival Internacional de Ajedrez "València cuna"</t>
+  </si>
+  <si>
+    <t>29º Trofeo de baloncesto Ciudad de València Masculino y Femenino</t>
+  </si>
+  <si>
+    <t>Vuelta ciclista València Élite-sub23 (masculino) / Etapa València</t>
+  </si>
+  <si>
+    <t>30ª Travesía a nado Puerto de València</t>
+  </si>
+  <si>
+    <t>Supercopa Nacional e Internacional de Judo absoluto</t>
+  </si>
+  <si>
+    <t>III Open Roundnet València</t>
+  </si>
+  <si>
+    <t>Día europeo del deporte</t>
+  </si>
+  <si>
+    <t>VESO 2023</t>
+  </si>
+  <si>
+    <t>Supercopa Nacional e Internacional de Judo junior</t>
+  </si>
+  <si>
+    <t>II Open Beach Tennis València</t>
+  </si>
+  <si>
+    <t>III Copa de España de Fit Kid</t>
+  </si>
+  <si>
+    <t>I Open Beach Volley València</t>
+  </si>
+  <si>
+    <t>13º Paseo Saludable La Nau Gran</t>
+  </si>
+  <si>
+    <t>XXI Rallye Ciudad de València - Memorial Javi Sanz</t>
+  </si>
+  <si>
+    <t>XXVI Trofeo Internacional Ciclocross Ciudad de València</t>
+  </si>
+  <si>
+    <t>Campeonato de España de Colpbol</t>
+  </si>
+  <si>
+    <t>Varios</t>
+  </si>
+  <si>
+    <t>Marina de València</t>
+  </si>
+  <si>
+    <t>Velódromo Luis Puig</t>
+  </si>
+  <si>
+    <t>Pabellón Fuensanta</t>
+  </si>
+  <si>
+    <t>Universidad de Valencia</t>
+  </si>
+  <si>
+    <t>Polideportivo Benicalap</t>
+  </si>
+  <si>
+    <t>Inmediaciones del Palau de la Generalitat y Plaza Manises</t>
+  </si>
+  <si>
+    <t>Inmediaciones del Velódromo Luis Puig</t>
+  </si>
+  <si>
+    <t>Pabellón Malvarrosa</t>
+  </si>
+  <si>
+    <t>Polideportivo Nazaret y Meliana</t>
+  </si>
+  <si>
+    <t>Real Club Náutico</t>
+  </si>
+  <si>
+    <t>Plaza del Ayuntamiento</t>
+  </si>
+  <si>
+    <t>Pabellón Fuente de San Luis</t>
+  </si>
+  <si>
+    <t>Ciudad de las Artes y las Ciencias</t>
+  </si>
+  <si>
+    <t>Playa Malvarrosa</t>
+  </si>
+  <si>
+    <t>Rectorado de la Universidad de València</t>
+  </si>
+  <si>
+    <t>Polideportivo Cabañal</t>
+  </si>
+  <si>
+    <t>Tramo XIV Río Turia</t>
+  </si>
+  <si>
+    <t>28-29/10</t>
+  </si>
+  <si>
+    <t>Torres de Serranos</t>
+  </si>
+  <si>
+    <t>Campos de Fútbol Municipales</t>
+  </si>
+  <si>
+    <t>Río Turia</t>
+  </si>
+  <si>
+    <t>02-03/01</t>
+  </si>
+  <si>
+    <t>19-25/02</t>
+  </si>
+  <si>
+    <t>28-29/01</t>
+  </si>
+  <si>
+    <t>03-10/03</t>
+  </si>
+  <si>
+    <t>11-12/03</t>
+  </si>
+  <si>
+    <t>01-02/04</t>
+  </si>
+  <si>
+    <t>06-09/04</t>
+  </si>
+  <si>
+    <t>05-07/05</t>
+  </si>
+  <si>
+    <t>04/02</t>
+  </si>
+  <si>
+    <t>23-25/06</t>
+  </si>
+  <si>
+    <t>30/06 - 02/07</t>
+  </si>
+  <si>
+    <t>17-18/09</t>
+  </si>
+  <si>
+    <t>22-24/09</t>
+  </si>
+  <si>
+    <t>29-30/09</t>
+  </si>
+  <si>
+    <t>06-08/10</t>
+  </si>
+  <si>
+    <t>Estadio del Turia</t>
+  </si>
+  <si>
+    <t>Circuito de Carreras Populares</t>
+  </si>
+  <si>
+    <t>Carrera Jocs Taronja</t>
+  </si>
+  <si>
+    <t>Cross Escolar Poblats Marítims</t>
+  </si>
+  <si>
+    <t>Global Running Day</t>
+  </si>
+  <si>
+    <t>Carrera Ruta 091</t>
+  </si>
+  <si>
+    <t>XV edición 10K València Ibercaja + V Milla València</t>
+  </si>
+  <si>
+    <t>9ª Edición Carrera 10KFem - Día de la mujer… ¡Deportista!</t>
+  </si>
+  <si>
+    <t>VI Vuelta a Pie Solidaria AFA Camí de l'Horta</t>
+  </si>
+  <si>
+    <t>39ª Vuelta a Pie a València</t>
+  </si>
+  <si>
+    <t>Carrera I Marcha por la esclerosis múltiple</t>
+  </si>
+  <si>
+    <t>Carrera solidaria para la Fundación Vicente Ferrer "1KM1VIDA"</t>
+  </si>
+  <si>
+    <t>XI Carrera de la Mujer UPV</t>
+  </si>
+  <si>
+    <t>XVII Carrera de la Mujer Central Lechera Asturiana</t>
+  </si>
+  <si>
+    <t>10ª Carrera de las empresas valencianas</t>
+  </si>
+  <si>
+    <t>Carrera solidaria "5K Trinitarias con el autismo y el asperger. Por una educación inclusiva"</t>
+  </si>
+  <si>
+    <t>10K y 5K Ponle freno</t>
+  </si>
+  <si>
+    <t>8ª 10K de l'Horta Castellar-Oliveral</t>
+  </si>
+  <si>
+    <t>3ª Edición del Nationale-Nederlanden Plogging Tour</t>
+  </si>
+  <si>
+    <t>VII València contra el Cáncer</t>
+  </si>
+  <si>
+    <t>10ª 15K Nocturna València Banco Mediolanum</t>
+  </si>
+  <si>
+    <t>32ª Mitja Marató València Trinidad Alfonso</t>
+  </si>
+  <si>
+    <t>Carrera solidaria de enfermedades neurológicas</t>
+  </si>
+  <si>
+    <t>11ª 15K València Abierta al Mar</t>
+  </si>
+  <si>
+    <t>V Carrera solidaria por el Cáncer de pulmón</t>
+  </si>
+  <si>
+    <t>Mini maratón València</t>
+  </si>
+  <si>
+    <t>7ª Marcha por la eliminación de la violencia contra las mujeres y por la igualdad</t>
+  </si>
+  <si>
+    <t>43º Maratón València Trinidad Alfonso</t>
+  </si>
+  <si>
+    <t>35ª Pas Ras al Port de València</t>
+  </si>
+  <si>
+    <t>38º San Silvestre Popular Valenciana</t>
+  </si>
+  <si>
+    <t>Campo de Béisbol Río Turia</t>
+  </si>
+  <si>
+    <t>Oceanográfico</t>
+  </si>
+  <si>
+    <t>22/01</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Club de Tenis València</t>
+  </si>
+  <si>
+    <t>10-18/06</t>
+  </si>
+  <si>
+    <t>09-11/07</t>
+  </si>
+  <si>
+    <t>05/02</t>
+  </si>
+  <si>
+    <t>Sporting Club de Tenis</t>
+  </si>
+  <si>
+    <t>16-23/07</t>
+  </si>
+  <si>
+    <t>Polideportivos Virgen del Carmen-Beteró, Tarongers, Carrasca y Cheste</t>
+  </si>
+  <si>
+    <t>28/06 - 02/07</t>
+  </si>
+  <si>
+    <t>01-09/07</t>
+  </si>
+  <si>
+    <t>Pabellón Fuente de San Luís</t>
+  </si>
+  <si>
+    <t>01-02/07</t>
+  </si>
+  <si>
+    <t>23/06 - 01/07
+16/07 - 23/07</t>
+  </si>
+  <si>
+    <t>18-22/07</t>
+  </si>
+  <si>
+    <t>01-04/08</t>
+  </si>
+  <si>
+    <t>CM València Tennis Center</t>
+  </si>
+  <si>
+    <t>Feria València</t>
+  </si>
+  <si>
+    <t>23-27/08</t>
+  </si>
+  <si>
+    <t>Playa del Cabanyal</t>
+  </si>
+  <si>
+    <t>01-03/09</t>
+  </si>
+  <si>
+    <t>01/09</t>
+  </si>
+  <si>
+    <t>World Padel Tour Adeslas València Open 1000</t>
+  </si>
+  <si>
+    <t>10/09</t>
+  </si>
+  <si>
+    <t>12-17/09</t>
+  </si>
+  <si>
+    <t>20-24/09</t>
+  </si>
+  <si>
+    <t>22/10</t>
+  </si>
+  <si>
+    <t>Club de Tenis Valencia</t>
+  </si>
+  <si>
+    <t>19-26/11</t>
+  </si>
+  <si>
+    <t>Polideportivo Benimàmet</t>
+  </si>
+  <si>
+    <t>14-17/12</t>
+  </si>
+  <si>
+    <t>15-22/12</t>
+  </si>
+  <si>
+    <t>Polideportivo Virgen del Carmen-Beteró</t>
+  </si>
+  <si>
+    <t>C/ José Ballester Gozalvo</t>
+  </si>
+  <si>
+    <t>03/12</t>
+  </si>
+  <si>
+    <t>Av. Antonio Ferrandis, 10</t>
+  </si>
+  <si>
+    <t>Tramo VI del Río Turia</t>
+  </si>
+  <si>
+    <t>La Marina de València</t>
+  </si>
+  <si>
+    <t>Alqueria del Basket</t>
+  </si>
+  <si>
+    <t>1. Grandes eventos deportivos organizados o con participación de la FDM. 2023</t>
+  </si>
+  <si>
+    <t>Puente Monte-Olivete</t>
+  </si>
+  <si>
+    <t>Copa del Sol de tenis (Campeonato de Europa sub-14)</t>
+  </si>
+  <si>
+    <t>European DNA Mitin atletismo, clubes promoción (sub-20, sub-18, sub-16) mixto y clubes absoluto mixto - Pista cubierta</t>
+  </si>
+  <si>
+    <t>Campeonato de España de clubes sub-16 de atletismo - Pista cubierta</t>
+  </si>
+  <si>
+    <t>Campeonato autonómico de bádminton sub-19 y senior</t>
+  </si>
+  <si>
+    <t>Mediterranean sub-23 Indoor Championships Valencia 2023</t>
+  </si>
+  <si>
+    <t>Clásica ciclista C. Valenciana 1969 - Gran Premio València</t>
+  </si>
+  <si>
+    <t>Llegada Vuelta ciclista a la C. Valenciana</t>
+  </si>
+  <si>
+    <t>Vuelta ciclista a la C. Valenciana, élite fem., sub-23 fem., tipo: 1.1 WE</t>
+  </si>
+  <si>
+    <t>BBVA Open Internacional de València (ATP 125)</t>
+  </si>
+  <si>
+    <t>Campeonato de España de ciclismo adaptado y absoluto en pista</t>
+  </si>
+  <si>
+    <t>Torneo nacional de ranking de espada femenina (esgrima). Ciudad de València</t>
+  </si>
+  <si>
+    <t>Campeonato de España de gimnasia individual</t>
+  </si>
+  <si>
+    <t>Campeonato de España de boccia</t>
+  </si>
+  <si>
+    <t>Copa Davis juvenil</t>
+  </si>
+  <si>
+    <t>Mundial gimnasia rítmica</t>
+  </si>
+  <si>
+    <t>Campeonato de España de selecciones autonómicas balonmano playa</t>
+  </si>
+  <si>
+    <t>Etapa 7 vuelta ciclista España (Utiel-Oliva)</t>
+  </si>
+  <si>
+    <t>Triatlón València, Copa del mundo</t>
+  </si>
+  <si>
+    <t>Campeonato de España hockey master T4</t>
+  </si>
+  <si>
+    <t>Campeonato de España hockey master T3</t>
+  </si>
+  <si>
+    <t>Copa Davis fase de grupos</t>
+  </si>
+  <si>
+    <t>Copa de Europa ciclismo adaptado</t>
+  </si>
+  <si>
+    <t>XXXII Día de la pilota valenciana</t>
+  </si>
+  <si>
+    <t>32ª Medio maratón València Trinidad Alfonso</t>
+  </si>
+  <si>
+    <t>Open Ciudad de València de tenis femenino, ATP challenger 100 (Copa Falcon Bridge)</t>
+  </si>
+  <si>
+    <t>43º Maratón València Trinidad Alfonso Zurich</t>
+  </si>
+  <si>
+    <t>Gran Premio Internacional de frontenis y frontball</t>
+  </si>
+  <si>
+    <t>Hockey femenino Copa 5 naciones</t>
+  </si>
+  <si>
+    <t>FIH Pro League - Liga mundial</t>
+  </si>
+  <si>
+    <t>Fase de grupos de la Copa mundial de sóftbol femenino</t>
+  </si>
+  <si>
+    <t>Polideportivo Benimaclet</t>
+  </si>
+  <si>
+    <t>3ª Carrera Benéfica The Human Safety Net</t>
+  </si>
+  <si>
+    <t>4ª Carrera por el Día Mundial del TDH</t>
+  </si>
+  <si>
+    <t>21/01</t>
+  </si>
+  <si>
+    <t>25/01</t>
+  </si>
+  <si>
+    <t>29/01</t>
+  </si>
+  <si>
+    <t>16/02</t>
+  </si>
+  <si>
+    <t>18/02</t>
+  </si>
+  <si>
+    <t>03/03</t>
+  </si>
+  <si>
+    <t>25/03</t>
+  </si>
+  <si>
+    <t>26/03</t>
+  </si>
+  <si>
+    <t>29/04</t>
+  </si>
+  <si>
+    <t>30/04</t>
+  </si>
+  <si>
+    <t>07/05</t>
+  </si>
+  <si>
+    <t>05/05</t>
+  </si>
+  <si>
+    <t>27/05</t>
+  </si>
+  <si>
+    <t>10/06</t>
+  </si>
+  <si>
+    <t>04/06</t>
+  </si>
+  <si>
+    <t>18/06</t>
+  </si>
+  <si>
+    <t>23/06</t>
+  </si>
+  <si>
+    <t>06/09</t>
+  </si>
+  <si>
+    <t>08/09</t>
+  </si>
+  <si>
+    <t>17/09</t>
+  </si>
+  <si>
+    <t>25/09</t>
+  </si>
+  <si>
+    <t>30/09</t>
+  </si>
+  <si>
+    <t>15/10</t>
+  </si>
+  <si>
+    <t>23/10</t>
+  </si>
+  <si>
+    <t>01/10</t>
+  </si>
+  <si>
+    <t>26/11</t>
+  </si>
+  <si>
+    <t>17/12</t>
+  </si>
+  <si>
+    <t>16/12</t>
+  </si>
+  <si>
+    <t>13/05</t>
+  </si>
+  <si>
+    <t>15/01</t>
+  </si>
+  <si>
+    <t>04/03</t>
+  </si>
+  <si>
+    <t>05/03</t>
+  </si>
+  <si>
+    <t>09/03</t>
+  </si>
+  <si>
+    <t>02/04</t>
+  </si>
+  <si>
+    <t>01/04</t>
+  </si>
+  <si>
+    <t>23/04</t>
+  </si>
+  <si>
+    <t>21/05</t>
+  </si>
+  <si>
+    <t>03/06</t>
+  </si>
+  <si>
+    <t>07/06</t>
+  </si>
+  <si>
+    <t>17/06</t>
+  </si>
+  <si>
+    <t>16/09</t>
+  </si>
+  <si>
+    <t>23/09</t>
+  </si>
+  <si>
+    <t>07/10</t>
+  </si>
+  <si>
+    <t>27/10</t>
+  </si>
+  <si>
+    <t>29/10</t>
+  </si>
+  <si>
+    <t>04/11</t>
+  </si>
+  <si>
+    <t>05/11</t>
+  </si>
+  <si>
+    <t>19/11</t>
+  </si>
+  <si>
+    <t>30/12</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm"/>
     <numFmt numFmtId="165" formatCode="d/mm"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -157,96 +922,96 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-      <protection locked="0" hidden="0"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1205,13 +1970,25 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFC0C0C0"/>
+      <color rgb="FF008000"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -1452,8 +2229,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -2331,2386 +3108,1815 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="37.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="inlineStr">
-        <is>
-          <t>EVENTOS DEPORTIVOS</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="54.7109375" customWidth="1" min="1" max="1"/>
-    <col width="11.7109375" customWidth="1" min="2" max="2"/>
-    <col width="31.7109375" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="54.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="inlineStr">
-        <is>
-          <t>1. Grandes eventos deportivos organizados o con participación de la FDM. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="n"/>
-      <c r="B2" s="4" t="n"/>
-      <c r="C2" s="4" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="15" t="inlineStr">
-        <is>
-          <t>Evento</t>
-        </is>
-      </c>
-      <c r="B3" s="16" t="inlineStr">
-        <is>
-          <t>Fecha</t>
-        </is>
-      </c>
-      <c r="C3" s="16" t="inlineStr">
-        <is>
-          <t>Lugar</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="21" t="inlineStr">
-        <is>
-          <t>Clásica ciclista C. Valenciana 1969 - Gran Premio València</t>
-        </is>
-      </c>
-      <c r="B4" s="32" t="inlineStr">
-        <is>
-          <t>22/01</t>
-        </is>
-      </c>
-      <c r="C4" s="33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="20" t="inlineStr">
-        <is>
-          <t>Llegada Vuelta ciclista a la C. Valenciana</t>
-        </is>
-      </c>
-      <c r="B5" s="31" t="inlineStr">
-        <is>
-          <t>05/02</t>
-        </is>
-      </c>
-      <c r="C5" s="34" t="inlineStr">
-        <is>
-          <t>Oceanográfico</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="21" t="inlineStr">
-        <is>
-          <t>Vuelta ciclista a la C. Valenciana, élite fem., sub-23 fem., tipo: 1.1 WE</t>
-        </is>
-      </c>
-      <c r="B6" s="32" t="inlineStr">
-        <is>
-          <t>05/02</t>
-        </is>
-      </c>
-      <c r="C6" s="19" t="inlineStr">
-        <is>
-          <t>Oceanográfico</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="30" customHeight="1">
-      <c r="A7" s="20" t="inlineStr">
-        <is>
-          <t>Torneo nacional de ranking de espada femenina (esgrima). Ciudad de València</t>
-        </is>
-      </c>
-      <c r="B7" s="31" t="inlineStr">
-        <is>
-          <t>13/05</t>
-        </is>
-      </c>
-      <c r="C7" s="18" t="inlineStr">
-        <is>
-          <t>Polideportivo Benimaclet</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="21" t="inlineStr">
-        <is>
-          <t>Copa del Sol de tenis (Campeonato de Europa sub-14)</t>
-        </is>
-      </c>
-      <c r="B8" s="32" t="inlineStr">
-        <is>
-          <t>01-09/07</t>
-        </is>
-      </c>
-      <c r="C8" s="19" t="inlineStr">
-        <is>
-          <t>Club de Tenis València</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="20" t="inlineStr">
-        <is>
-          <t>Campeonato de España de ciclismo adaptado y absoluto en pista</t>
-        </is>
-      </c>
-      <c r="B9" s="31" t="inlineStr">
-        <is>
-          <t>09-11/07</t>
-        </is>
-      </c>
-      <c r="C9" s="18" t="inlineStr">
-        <is>
-          <t>Velódromo Luis Puig</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="21" t="inlineStr">
-        <is>
-          <t>BBVA Open Internacional de València (ATP 125)</t>
-        </is>
-      </c>
-      <c r="B10" s="32" t="inlineStr">
-        <is>
-          <t>10-18/06</t>
-        </is>
-      </c>
-      <c r="C10" s="19" t="inlineStr">
-        <is>
-          <t>Sporting Club de Tenis</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="30" customHeight="1">
-      <c r="A11" s="20" t="inlineStr">
-        <is>
-          <t>Campeonato de España hockey master T4</t>
-        </is>
-      </c>
-      <c r="B11" s="35" t="inlineStr">
-        <is>
-          <t>16-23/07</t>
-        </is>
-      </c>
-      <c r="C11" s="18" t="inlineStr">
-        <is>
-          <t>Polideportivos Virgen del Carmen-Beteró, Tarongers, Carrasca y Cheste</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="21" t="inlineStr">
-        <is>
-          <t>Campeonato de España de gimnasia individual</t>
-        </is>
-      </c>
-      <c r="B12" s="32" t="inlineStr">
-        <is>
-          <t>28/06 - 02/07</t>
-        </is>
-      </c>
-      <c r="C12" s="19" t="inlineStr">
-        <is>
-          <t>Pabellón Fuente de San Luís</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="20" t="inlineStr">
-        <is>
-          <t>Campeonato de España de boccia</t>
-        </is>
-      </c>
-      <c r="B13" s="31" t="inlineStr">
-        <is>
-          <t>01-02/07</t>
-        </is>
-      </c>
-      <c r="C13" s="18" t="inlineStr">
-        <is>
-          <t>Alqueria del Basket</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="21" t="inlineStr">
-        <is>
-          <t>World Padel Tour Adeslas València Open 1000</t>
-        </is>
-      </c>
-      <c r="B14" s="32" t="inlineStr">
-        <is>
-          <t>01-09/07</t>
-        </is>
-      </c>
-      <c r="C14" s="33" t="inlineStr">
-        <is>
-          <t>Pabellón Fuente de San Luís</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="30" customHeight="1">
-      <c r="A15" s="20" t="inlineStr">
-        <is>
-          <t>Campeonato de España hockey master T3</t>
-        </is>
-      </c>
-      <c r="B15" s="31" t="inlineStr">
-        <is>
-          <t>23/06 - 01/07
-16/07 - 23/07</t>
-        </is>
-      </c>
-      <c r="C15" s="18" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="21" t="inlineStr">
-        <is>
-          <t>Fase de grupos de la Copa mundial de sóftbol femenino</t>
-        </is>
-      </c>
-      <c r="B16" s="32" t="inlineStr">
-        <is>
-          <t>18-22/07</t>
-        </is>
-      </c>
-      <c r="C16" s="33" t="inlineStr">
-        <is>
-          <t>Tramo VI del Río Turia</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="20" t="inlineStr">
-        <is>
-          <t>Copa Davis juvenil</t>
-        </is>
-      </c>
-      <c r="B17" s="31" t="inlineStr">
-        <is>
-          <t>01-04/08</t>
-        </is>
-      </c>
-      <c r="C17" s="18" t="inlineStr">
-        <is>
-          <t>CM València Tennis Center</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="21" t="inlineStr">
-        <is>
-          <t>Mundial gimnasia rítmica</t>
-        </is>
-      </c>
-      <c r="B18" s="32" t="inlineStr">
-        <is>
-          <t>23-27/08</t>
-        </is>
-      </c>
-      <c r="C18" s="33" t="inlineStr">
-        <is>
-          <t>Feria València</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="20" t="inlineStr">
-        <is>
-          <t>Campeonato de España de selecciones autonómicas balonmano playa</t>
-        </is>
-      </c>
-      <c r="B19" s="31" t="inlineStr">
-        <is>
-          <t>01-03/09</t>
-        </is>
-      </c>
-      <c r="C19" s="18" t="inlineStr">
-        <is>
-          <t>Playa del Cabanyal</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="21" t="inlineStr">
-        <is>
-          <t>Etapa 7 vuelta ciclista España (Utiel-Oliva)</t>
-        </is>
-      </c>
-      <c r="B20" s="32" t="inlineStr">
-        <is>
-          <t>01/09</t>
-        </is>
-      </c>
-      <c r="C20" s="33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="20" t="inlineStr">
-        <is>
-          <t>Triatlón València, Copa del mundo</t>
-        </is>
-      </c>
-      <c r="B21" s="31" t="inlineStr">
-        <is>
-          <t>01-03/09</t>
-        </is>
-      </c>
-      <c r="C21" s="18" t="inlineStr">
-        <is>
-          <t>La Marina de València</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="21" t="inlineStr">
-        <is>
-          <t>Copa de Europa ciclismo adaptado</t>
-        </is>
-      </c>
-      <c r="B22" s="32" t="inlineStr">
-        <is>
-          <t>10/09</t>
-        </is>
-      </c>
-      <c r="C22" s="33" t="inlineStr">
-        <is>
-          <t>C/ José Ballester Gozalvo</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="20" t="inlineStr">
-        <is>
-          <t>Copa Davis fase de grupos</t>
-        </is>
-      </c>
-      <c r="B23" s="31" t="inlineStr">
-        <is>
-          <t>12-17/09</t>
-        </is>
-      </c>
-      <c r="C23" s="18" t="inlineStr">
-        <is>
-          <t>Pabellón Fuente de San Luis</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="21" t="inlineStr">
-        <is>
-          <t>XXXII Día de la pilota valenciana</t>
-        </is>
-      </c>
-      <c r="B24" s="32" t="inlineStr">
-        <is>
-          <t>20-24/09</t>
-        </is>
-      </c>
-      <c r="C24" s="33" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="20" t="inlineStr">
-        <is>
-          <t>32ª Medio maratón València Trinidad Alfonso</t>
-        </is>
-      </c>
-      <c r="B25" s="31" t="inlineStr">
-        <is>
-          <t>22/10</t>
-        </is>
-      </c>
-      <c r="C25" s="18" t="inlineStr">
-        <is>
-          <t>Av. Antonio Ferrandis, 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="A26" s="21" t="inlineStr">
-        <is>
-          <t>Open Ciudad de València de tenis femenino, ATP challenger 100 (Copa Falcon Bridge)</t>
-        </is>
-      </c>
-      <c r="B26" s="32" t="inlineStr">
-        <is>
-          <t>19-26/11</t>
-        </is>
-      </c>
-      <c r="C26" s="33" t="inlineStr">
-        <is>
-          <t>Club de Tenis Valencia</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="20" t="inlineStr">
-        <is>
-          <t>43º Maratón València Trinidad Alfonso Zurich</t>
-        </is>
-      </c>
-      <c r="B27" s="31" t="inlineStr">
-        <is>
-          <t>03/12</t>
-        </is>
-      </c>
-      <c r="C27" s="18" t="inlineStr">
-        <is>
-          <t>Puente Monte-Olivete</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="21" t="inlineStr">
-        <is>
-          <t>Gran Premio Internacional de frontenis y frontball</t>
-        </is>
-      </c>
-      <c r="B28" s="32" t="inlineStr">
-        <is>
-          <t>14-17/12</t>
-        </is>
-      </c>
-      <c r="C28" s="33" t="inlineStr">
-        <is>
-          <t>Polideportivo Benimàmet</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="20" t="inlineStr">
-        <is>
-          <t>Hockey femenino Copa 5 naciones</t>
-        </is>
-      </c>
-      <c r="B29" s="31" t="inlineStr">
-        <is>
-          <t>15-22/12</t>
-        </is>
-      </c>
-      <c r="C29" s="34" t="inlineStr">
-        <is>
-          <t>Polideportivo Virgen del Carmen-Beteró</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="21" t="inlineStr">
-        <is>
-          <t>FIH Pro League - Liga mundial</t>
-        </is>
-      </c>
-      <c r="B30" s="36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C30" s="33" t="inlineStr">
-        <is>
-          <t>Polideportivo Virgen del Carmen-Beteró</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fuente: Fundación Deportiva Municipal. Ayuntamiento de València. </t>
-        </is>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="B8:B9 B13:B14 B21 B19 B17" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja20">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="52.7109375" customWidth="1" min="1" max="1"/>
-    <col width="10.7109375" customWidth="1" min="2" max="2"/>
-    <col width="12.7109375" customWidth="1" style="3" min="3" max="3"/>
+    <col min="1" max="1" width="52.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="inlineStr">
-        <is>
-          <t>2. Carreras Populares en València. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="n"/>
-      <c r="C1" s="7" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="n"/>
-      <c r="B2" s="4" t="n"/>
-      <c r="C2" s="7" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customFormat="1" customHeight="1" s="2">
-      <c r="A3" s="14" t="inlineStr">
-        <is>
-          <t>Evento</t>
-        </is>
-      </c>
-      <c r="B3" s="13" t="inlineStr">
-        <is>
-          <t>Fecha</t>
-        </is>
-      </c>
-      <c r="C3" s="13" t="inlineStr">
-        <is>
-          <t>Participantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customFormat="1" customHeight="1" s="2">
-      <c r="A4" s="8" t="inlineStr">
-        <is>
-          <t>Circuito de Carreras Populares</t>
-        </is>
-      </c>
-      <c r="B4" s="24" t="n"/>
-      <c r="C4" s="9" t="n"/>
-      <c r="D4" s="9" t="n"/>
-      <c r="E4" s="9" t="n"/>
-    </row>
-    <row r="5" ht="15" customFormat="1" customHeight="1" s="2">
-      <c r="A5" s="26" t="inlineStr">
-        <is>
-          <t>XV edición 10K València Ibercaja + V Milla València</t>
-        </is>
-      </c>
-      <c r="B5" s="23" t="inlineStr">
-        <is>
-          <t>15/01</t>
-        </is>
-      </c>
-      <c r="C5" s="10" t="n">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="10">
         <v>10927</v>
       </c>
     </row>
-    <row r="6" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A6" s="27" t="inlineStr">
-        <is>
-          <t>Carrera Jocs Taronja</t>
-        </is>
-      </c>
-      <c r="B6" s="24" t="inlineStr">
-        <is>
-          <t>04/03</t>
-        </is>
-      </c>
-      <c r="C6" s="9" t="n">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="7" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A7" s="26" t="inlineStr">
-        <is>
-          <t>9ª Edición Carrera 10KFem - Día de la mujer… ¡Deportista!</t>
-        </is>
-      </c>
-      <c r="B7" s="23" t="inlineStr">
-        <is>
-          <t>05/03</t>
-        </is>
-      </c>
-      <c r="C7" s="10" t="n">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="10">
         <v>1482</v>
       </c>
     </row>
-    <row r="8" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A8" s="27" t="inlineStr">
-        <is>
-          <t>XI Carrera de la Mujer UPV</t>
-        </is>
-      </c>
-      <c r="B8" s="24" t="inlineStr">
-        <is>
-          <t>09/03</t>
-        </is>
-      </c>
-      <c r="C8" s="9" t="n">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="9">
         <v>273</v>
       </c>
     </row>
-    <row r="9" ht="15" customFormat="1" customHeight="1" s="17">
-      <c r="A9" s="26" t="inlineStr">
-        <is>
-          <t>Carrera solidaria para la Fundación Vicente Ferrer "1KM1VIDA"</t>
-        </is>
-      </c>
-      <c r="B9" s="23" t="inlineStr">
-        <is>
-          <t>02/04</t>
-        </is>
-      </c>
-      <c r="C9" s="10" t="n">
+    <row r="9" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="10">
         <v>700</v>
       </c>
     </row>
-    <row r="10" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A10" s="27" t="inlineStr">
-        <is>
-          <t>VI Vuelta a Pie Solidaria AFA Camí de l'Horta</t>
-        </is>
-      </c>
-      <c r="B10" s="24" t="inlineStr">
-        <is>
-          <t>01/04</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="n">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="9">
         <v>600</v>
       </c>
     </row>
-    <row r="11" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A11" s="26" t="inlineStr">
-        <is>
-          <t>Cross Escolar Poblats Marítims</t>
-        </is>
-      </c>
-      <c r="B11" s="23" t="inlineStr">
-        <is>
-          <t>01/04</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="n">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="10">
         <v>350</v>
       </c>
     </row>
-    <row r="12" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A12" s="27" t="inlineStr">
-        <is>
-          <t>XVII Carrera de la Mujer Central Lechera Asturiana</t>
-        </is>
-      </c>
-      <c r="B12" s="24" t="inlineStr">
-        <is>
-          <t>23/04</t>
-        </is>
-      </c>
-      <c r="C12" s="9" t="n">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="9">
         <v>5537</v>
       </c>
     </row>
-    <row r="13" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A13" s="26" t="inlineStr">
-        <is>
-          <t>10ª Carrera de las empresas valencianas</t>
-        </is>
-      </c>
-      <c r="B13" s="23" t="inlineStr">
-        <is>
-          <t>07/05</t>
-        </is>
-      </c>
-      <c r="C13" s="10" t="n">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="10">
         <v>4082</v>
       </c>
     </row>
-    <row r="14" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A14" s="27" t="inlineStr">
-        <is>
-          <t>Carrera I Marcha por la esclerosis múltiple</t>
-        </is>
-      </c>
-      <c r="B14" s="24" t="inlineStr">
-        <is>
-          <t>13/05</t>
-        </is>
-      </c>
-      <c r="C14" s="9" t="n">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="9">
         <v>333</v>
       </c>
     </row>
-    <row r="15" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A15" s="26" t="inlineStr">
-        <is>
-          <t>39ª Vuelta a Pie a València</t>
-        </is>
-      </c>
-      <c r="B15" s="23" t="inlineStr">
-        <is>
-          <t>21/05</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="n">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="10">
         <v>6200</v>
       </c>
     </row>
-    <row r="16" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A16" s="27" t="inlineStr">
-        <is>
-          <t>Carrera solidaria "5K Trinitarias con el autismo y el asperger. Por una educación inclusiva"</t>
-        </is>
-      </c>
-      <c r="B16" s="24" t="inlineStr">
-        <is>
-          <t>03/06</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="n">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" s="7">
         <v>812</v>
       </c>
     </row>
-    <row r="17" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A17" s="26" t="inlineStr">
-        <is>
-          <t>Global Running Day</t>
-        </is>
-      </c>
-      <c r="B17" s="23" t="inlineStr">
-        <is>
-          <t>07/06</t>
-        </is>
-      </c>
-      <c r="C17" s="10" t="n">
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" s="10">
         <v>500</v>
       </c>
     </row>
-    <row r="18" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A18" s="27" t="inlineStr">
-        <is>
-          <t>3ª Carrera Benéfica The Human Safety Net</t>
-        </is>
-      </c>
-      <c r="B18" s="24" t="inlineStr">
-        <is>
-          <t>10/06</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="n">
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="7">
         <v>170</v>
       </c>
     </row>
-    <row r="19" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A19" s="26" t="inlineStr">
-        <is>
-          <t>10K y 5K Ponle freno</t>
-        </is>
-      </c>
-      <c r="B19" s="23" t="inlineStr">
-        <is>
-          <t>17/06</t>
-        </is>
-      </c>
-      <c r="C19" s="10" t="n">
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" s="10">
         <v>1737</v>
       </c>
     </row>
-    <row r="20" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A20" s="27" t="inlineStr">
-        <is>
-          <t>Carrera Ruta 091</t>
-        </is>
-      </c>
-      <c r="B20" s="24" t="inlineStr">
-        <is>
-          <t>16/09</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="n">
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="7">
         <v>1073</v>
       </c>
     </row>
-    <row r="21" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A21" s="26" t="inlineStr">
-        <is>
-          <t>8ª 10K de l'Horta Castellar-Oliveral</t>
-        </is>
-      </c>
-      <c r="B21" s="23" t="inlineStr">
-        <is>
-          <t>17/09</t>
-        </is>
-      </c>
-      <c r="C21" s="10" t="n">
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="10">
         <v>735</v>
       </c>
     </row>
-    <row r="22" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A22" s="27" t="inlineStr">
-        <is>
-          <t>3ª Edición del Nationale-Nederlanden Plogging Tour</t>
-        </is>
-      </c>
-      <c r="B22" s="24" t="inlineStr">
-        <is>
-          <t>23/09</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="n">
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" s="7">
         <v>800</v>
       </c>
     </row>
-    <row r="23" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A23" s="26" t="inlineStr">
-        <is>
-          <t>10ª 15K Nocturna València Banco Mediolanum</t>
-        </is>
-      </c>
-      <c r="B23" s="23" t="inlineStr">
-        <is>
-          <t>30/09</t>
-        </is>
-      </c>
-      <c r="C23" s="10" t="n">
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="10">
         <v>7263</v>
       </c>
     </row>
-    <row r="24" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A24" s="27" t="inlineStr">
-        <is>
-          <t>4ª Carrera por el Día Mundial del TDH</t>
-        </is>
-      </c>
-      <c r="B24" s="24" t="inlineStr">
-        <is>
-          <t>07/10</t>
-        </is>
-      </c>
-      <c r="C24" s="7" t="n">
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" s="7">
         <v>330</v>
       </c>
     </row>
-    <row r="25" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A25" s="26" t="inlineStr">
-        <is>
-          <t>32ª Mitja Marató València Trinidad Alfonso</t>
-        </is>
-      </c>
-      <c r="B25" s="23" t="inlineStr">
-        <is>
-          <t>27/10</t>
-        </is>
-      </c>
-      <c r="C25" s="10" t="n">
+    <row r="25" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="10">
         <v>19494</v>
       </c>
     </row>
-    <row r="26" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A26" s="27" t="inlineStr">
-        <is>
-          <t>VII València contra el Cáncer</t>
-        </is>
-      </c>
-      <c r="B26" s="24" t="inlineStr">
-        <is>
-          <t>29/10</t>
-        </is>
-      </c>
-      <c r="C26" s="7" t="n">
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="7">
         <v>3214</v>
       </c>
     </row>
-    <row r="27" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A27" s="26" t="inlineStr">
-        <is>
-          <t>Carrera solidaria de enfermedades neurológicas</t>
-        </is>
-      </c>
-      <c r="B27" s="23" t="inlineStr">
-        <is>
-          <t>04/11</t>
-        </is>
-      </c>
-      <c r="C27" s="10" t="n">
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="28" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A28" s="27" t="inlineStr">
-        <is>
-          <t>11ª 15K València Abierta al Mar</t>
-        </is>
-      </c>
-      <c r="B28" s="24" t="inlineStr">
-        <is>
-          <t>05/11</t>
-        </is>
-      </c>
-      <c r="C28" s="7" t="n">
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" s="7">
         <v>3143</v>
       </c>
     </row>
-    <row r="29" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A29" s="26" t="inlineStr">
-        <is>
-          <t>V Carrera solidaria por el Cáncer de pulmón</t>
-        </is>
-      </c>
-      <c r="B29" s="23" t="inlineStr">
-        <is>
-          <t>19/11</t>
-        </is>
-      </c>
-      <c r="C29" s="10" t="n">
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" s="10">
         <v>306</v>
       </c>
     </row>
-    <row r="30" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A30" s="27" t="inlineStr">
-        <is>
-          <t>7ª Marcha por la eliminación de la violencia contra las mujeres y por la igualdad</t>
-        </is>
-      </c>
-      <c r="B30" s="24" t="inlineStr">
-        <is>
-          <t>26/11</t>
-        </is>
-      </c>
-      <c r="C30" s="7" t="n">
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" s="7">
         <v>2300</v>
       </c>
     </row>
-    <row r="31" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A31" s="26" t="inlineStr">
-        <is>
-          <t>Mini maratón València</t>
-        </is>
-      </c>
-      <c r="B31" s="23" t="inlineStr">
-        <is>
-          <t>26/11</t>
-        </is>
-      </c>
-      <c r="C31" s="10" t="n">
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" s="10">
         <v>900</v>
       </c>
     </row>
-    <row r="32" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A32" s="27" t="inlineStr">
-        <is>
-          <t>43º Maratón València Trinidad Alfonso</t>
-        </is>
-      </c>
-      <c r="B32" s="24" t="inlineStr">
-        <is>
-          <t>03/12</t>
-        </is>
-      </c>
-      <c r="C32" s="7" t="n">
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="7">
         <v>25897</v>
       </c>
     </row>
-    <row r="33" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A33" s="26" t="inlineStr">
-        <is>
-          <t>35ª Pas Ras al Port de València</t>
-        </is>
-      </c>
-      <c r="B33" s="23" t="inlineStr">
-        <is>
-          <t>17/12</t>
-        </is>
-      </c>
-      <c r="C33" s="10" t="n">
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C33" s="10">
         <v>2138</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="27" t="inlineStr">
-        <is>
-          <t>38º San Silvestre Popular Valenciana</t>
-        </is>
-      </c>
-      <c r="B34" s="24" t="inlineStr">
-        <is>
-          <t>30/12</t>
-        </is>
-      </c>
-      <c r="C34" s="7" t="n">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C34" s="7">
         <v>16000</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fuente: Fundación Deportiva Municipal. Ayuntamiento de València. </t>
-        </is>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A14">
-    <cfRule type="timePeriod" priority="101" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="87" priority="101" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A14)=MONTH(EDATE(TODAY(),0-1)),YEAR(A14)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="timePeriod" priority="109" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="86" priority="109" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A16)=MONTH(EDATE(TODAY(),0-1)),YEAR(A16)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="timePeriod" priority="108" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="85" priority="108" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(C7)=MONTH(EDATE(TODAY(),0-1)),YEAR(C7)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="timePeriod" priority="100" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="84" priority="100" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A20)=MONTH(EDATE(TODAY(),0-1)),YEAR(A20)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="timePeriod" priority="37" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="83" priority="37" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(B7)=MONTH(EDATE(TODAY(),0-1)),YEAR(B7)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="timePeriod" priority="36" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="82" priority="36" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(B14)=MONTH(EDATE(TODAY(),0-1)),YEAR(B14)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="timePeriod" priority="18" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="81" priority="18" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A32)=MONTH(EDATE(TODAY(),0-1)),YEAR(A32)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24 A28">
-    <cfRule type="timePeriod" priority="20" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="80" priority="20" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A24)=MONTH(EDATE(TODAY(),0-1)),YEAR(A24)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="timePeriod" priority="9" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="79" priority="9" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A34)=MONTH(EDATE(TODAY(),0-1)),YEAR(A34)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="timePeriod" priority="7" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="78" priority="7" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A5)=MONTH(EDATE(TODAY(),0-1)),YEAR(A5)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja21">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="57.7109375" customWidth="1" min="1" max="1"/>
-    <col width="10.7109375" customWidth="1" min="2" max="2"/>
-    <col width="25.7109375" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="inlineStr">
-        <is>
-          <t>3. Otros eventos deportivos organizados o con participación de la FDM. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="n"/>
-      <c r="B2" s="4" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customFormat="1" customHeight="1" s="2">
-      <c r="A3" s="14" t="inlineStr">
-        <is>
-          <t>Evento</t>
-        </is>
-      </c>
-      <c r="B3" s="13" t="inlineStr">
-        <is>
-          <t>Fecha</t>
-        </is>
-      </c>
-      <c r="C3" s="13" t="inlineStr">
-        <is>
-          <t>Lugar</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A4" s="21" t="inlineStr">
-        <is>
-          <t>Concentración Judo Año Nuevo (ABS, CAD, INF)</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>02-03/01</t>
-        </is>
-      </c>
-      <c r="C4" s="19" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A5" s="20" t="inlineStr">
-        <is>
-          <t>European DNA Mitin atletismo, clubes promoción (sub-20, sub-18, sub-16) mixto y clubes absoluto mixto - Pista cubierta</t>
-        </is>
-      </c>
-      <c r="B5" s="25" t="inlineStr">
-        <is>
-          <t>21/01</t>
-        </is>
-      </c>
-      <c r="C5" s="18" t="inlineStr">
-        <is>
-          <t>Velódromo Luis Puig</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A6" s="21" t="inlineStr">
-        <is>
-          <t>Mediterranean sub-23 Indoor Championships Valencia 2023</t>
-        </is>
-      </c>
-      <c r="B6" s="12" t="inlineStr">
-        <is>
-          <t>22/01</t>
-        </is>
-      </c>
-      <c r="C6" s="19" t="inlineStr">
-        <is>
-          <t>Velódromo Luis Puig</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A7" s="20" t="inlineStr">
-        <is>
-          <t>Campeonato autonómico por clubes absoluto - Atletismo en pista cubierta</t>
-        </is>
-      </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>28-29/01</t>
-        </is>
-      </c>
-      <c r="C7" s="18" t="inlineStr">
-        <is>
-          <t>Velódromo Luis Puig</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A8" s="21" t="inlineStr">
-        <is>
-          <t>Gran Premio de Atletismo en pista cubierta "Ciudad de València 2023"</t>
-        </is>
-      </c>
-      <c r="B8" s="12" t="inlineStr">
-        <is>
-          <t>25/01</t>
-        </is>
-      </c>
-      <c r="C8" s="19" t="inlineStr">
-        <is>
-          <t>Velódromo Luis Puig</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A9" s="20" t="inlineStr">
-        <is>
-          <t>Autonómico de trial grappling, sambo y luchas olímpicas</t>
-        </is>
-      </c>
-      <c r="B9" s="11" t="inlineStr">
-        <is>
-          <t>29/01</t>
-        </is>
-      </c>
-      <c r="C9" s="18" t="inlineStr">
-        <is>
-          <t>Pabellón Fuensanta</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A10" s="21" t="inlineStr">
-        <is>
-          <t>Autonómico de judo (INF-CAD)</t>
-        </is>
-      </c>
-      <c r="B10" s="24" t="inlineStr">
-        <is>
-          <t>04/02</t>
-        </is>
-      </c>
-      <c r="C10" s="19" t="inlineStr">
-        <is>
-          <t>Polideportivo Benicalap</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A11" s="20" t="inlineStr">
-        <is>
-          <t>VII Semana Valenciana - Vuelta Comunidad Valenciana Mujeres</t>
-        </is>
-      </c>
-      <c r="B11" s="11" t="inlineStr">
-        <is>
-          <t>16/02</t>
-        </is>
-      </c>
-      <c r="C11" s="18" t="inlineStr">
-        <is>
-          <t>Marina de València</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A12" s="21" t="inlineStr">
-        <is>
-          <t>Autonómico Universitario Judo (Absoluto)</t>
-        </is>
-      </c>
-      <c r="B12" s="12" t="inlineStr">
-        <is>
-          <t>18/02</t>
-        </is>
-      </c>
-      <c r="C12" s="19" t="inlineStr">
-        <is>
-          <t>Universidad de Valencia</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="25.5" customFormat="1" customHeight="1" s="1">
-      <c r="A13" s="20" t="inlineStr">
-        <is>
-          <t>Winter Internacional Beisbol. Academia de tecnificación Regensburg (Alemania), A. T Toulouse (Francia)</t>
-        </is>
-      </c>
-      <c r="B13" s="11" t="inlineStr">
-        <is>
-          <t>19-25/02</t>
-        </is>
-      </c>
-      <c r="C13" s="18" t="inlineStr">
-        <is>
-          <t>Campo de Béisbol Río Turia</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A14" s="21" t="inlineStr">
-        <is>
-          <t>Va de Dona 2023</t>
-        </is>
-      </c>
-      <c r="B14" s="12" t="inlineStr">
-        <is>
-          <t>03-10/03</t>
-        </is>
-      </c>
-      <c r="C14" s="19" t="inlineStr">
-        <is>
-          <t>Inmediaciones del Palau de la Generalitat y Plaza Manises</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A15" s="20" t="inlineStr">
-        <is>
-          <t>IX Jocs Taronja</t>
-        </is>
-      </c>
-      <c r="B15" s="11" t="inlineStr">
-        <is>
-          <t>03/03</t>
-        </is>
-      </c>
-      <c r="C15" s="18" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A16" s="21" t="inlineStr">
-        <is>
-          <t>Campeonato Comunidad Valenciana Ciclismo en pista</t>
-        </is>
-      </c>
-      <c r="B16" s="12" t="inlineStr">
-        <is>
-          <t>11-12/03</t>
-        </is>
-      </c>
-      <c r="C16" s="19" t="inlineStr">
-        <is>
-          <t>Velódromo Luis Puig</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A17" s="20" t="inlineStr">
-        <is>
-          <t>XII Trofeo Ciclismo Social Pinedo y XXV Memorial Don Manuel González</t>
-        </is>
-      </c>
-      <c r="B17" s="11" t="inlineStr">
-        <is>
-          <t>25/03</t>
-        </is>
-      </c>
-      <c r="C17" s="18" t="inlineStr">
-        <is>
-          <t>Pinedo</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A18" s="21" t="inlineStr">
-        <is>
-          <t>XV Trofeo Escuelas Ciclismo FDM València</t>
-        </is>
-      </c>
-      <c r="B18" s="12" t="inlineStr">
-        <is>
-          <t>26/03</t>
-        </is>
-      </c>
-      <c r="C18" s="19" t="inlineStr">
-        <is>
-          <t>Inmediaciones del Velódromo Luis Puig</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A19" s="20" t="inlineStr">
-        <is>
-          <t>VII Regata Liga Suma, 4ª regata ciudad de València</t>
-        </is>
-      </c>
-      <c r="B19" s="11" t="inlineStr">
-        <is>
-          <t>26/03</t>
-        </is>
-      </c>
-      <c r="C19" s="18" t="inlineStr">
-        <is>
-          <t>La Marina de València</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A20" s="21" t="inlineStr">
-        <is>
-          <t>Máster bádminton absoluto ciudad de València</t>
-        </is>
-      </c>
-      <c r="B20" s="12" t="inlineStr">
-        <is>
-          <t>01-02/04</t>
-        </is>
-      </c>
-      <c r="C20" s="19" t="inlineStr">
-        <is>
-          <t>Pabellón Fuensanta</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A21" s="20" t="inlineStr">
-        <is>
-          <t>Valencia Cup Girls (Fútbol femenino)</t>
-        </is>
-      </c>
-      <c r="B21" s="11" t="inlineStr">
-        <is>
-          <t>06-09/04</t>
-        </is>
-      </c>
-      <c r="C21" s="18" t="inlineStr">
-        <is>
-          <t>Campos de Fútbol Municipales</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A22" s="21" t="inlineStr">
-        <is>
-          <t>Campeonato C. Valenciana de Cometas acrobáticas</t>
-        </is>
-      </c>
-      <c r="B22" s="28" t="inlineStr">
-        <is>
-          <t>29/04</t>
-        </is>
-      </c>
-      <c r="C22" s="19" t="inlineStr">
-        <is>
-          <t>Playa del Cabanyal</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A23" s="20" t="inlineStr">
-        <is>
-          <t>18ª marcha cicloturista "Ciudad de València"</t>
-        </is>
-      </c>
-      <c r="B23" s="11" t="inlineStr">
-        <is>
-          <t>30/04</t>
-        </is>
-      </c>
-      <c r="C23" s="18" t="inlineStr">
-        <is>
-          <t>Marina de València</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A24" s="21" t="inlineStr">
-        <is>
-          <t>Trofeo ciclista U.C. Castellar</t>
-        </is>
-      </c>
-      <c r="B24" s="12" t="inlineStr">
-        <is>
-          <t>29/04</t>
-        </is>
-      </c>
-      <c r="C24" s="19" t="inlineStr">
-        <is>
-          <t>Castellar</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A25" s="20" t="inlineStr">
-        <is>
-          <t>Predator Grand Prix Women 3 Cushion "Ciudad de València" (Billar)</t>
-        </is>
-      </c>
-      <c r="B25" s="11" t="inlineStr">
-        <is>
-          <t>05-07/05</t>
-        </is>
-      </c>
-      <c r="C25" s="18" t="inlineStr">
-        <is>
-          <t>CDC Petxina</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A26" s="21" t="inlineStr">
-        <is>
-          <t>Gravel Augusta</t>
-        </is>
-      </c>
-      <c r="B26" s="12" t="inlineStr">
-        <is>
-          <t>07/05</t>
-        </is>
-      </c>
-      <c r="C26" s="19" t="inlineStr">
-        <is>
-          <t>Pabellón Malvarrosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A27" s="20" t="inlineStr">
-        <is>
-          <t>Salida MTB Mitic Bike</t>
-        </is>
-      </c>
-      <c r="B27" s="11" t="inlineStr">
-        <is>
-          <t>05/05</t>
-        </is>
-      </c>
-      <c r="C27" s="18" t="inlineStr">
-        <is>
-          <t>Río Turia</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A28" s="21" t="inlineStr">
-        <is>
-          <t>Meeting València Beach Volley</t>
-        </is>
-      </c>
-      <c r="B28" s="12" t="inlineStr">
-        <is>
-          <t>27/05</t>
-        </is>
-      </c>
-      <c r="C28" s="19" t="inlineStr">
-        <is>
-          <t>Beach Voley Training Camp</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A29" s="20" t="inlineStr">
-        <is>
-          <t>VIII Trofeo de bádminton Ciudad de València</t>
-        </is>
-      </c>
-      <c r="B29" s="11" t="inlineStr">
-        <is>
-          <t>10/06</t>
-        </is>
-      </c>
-      <c r="C29" s="18" t="inlineStr">
-        <is>
-          <t>Pabellón Fuensanta</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A30" s="21" t="inlineStr">
-        <is>
-          <t>III Mitin internacional David Casinos Atletismo adaptado</t>
-        </is>
-      </c>
-      <c r="B30" s="12" t="inlineStr">
-        <is>
-          <t>04/06</t>
-        </is>
-      </c>
-      <c r="C30" s="19" t="inlineStr">
-        <is>
-          <t>Estadio del Turia</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A31" s="20" t="inlineStr">
-        <is>
-          <t>XV Trofeo de Bailes estándar y latinos "Ciudad de València"</t>
-        </is>
-      </c>
-      <c r="B31" s="11" t="inlineStr">
-        <is>
-          <t>18/06</t>
-        </is>
-      </c>
-      <c r="C31" s="18" t="inlineStr">
-        <is>
-          <t>Pabellón Malvarrosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A32" s="21" t="inlineStr">
-        <is>
-          <t>Campeonato de España de Colpbol</t>
-        </is>
-      </c>
-      <c r="B32" s="12" t="inlineStr">
-        <is>
-          <t>23-25/06</t>
-        </is>
-      </c>
-      <c r="C32" s="19" t="inlineStr">
-        <is>
-          <t>Polideportivo Nazaret y Meliana</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A33" s="20" t="inlineStr">
-        <is>
-          <t>Trofeo San Juan Mixto Voley playa</t>
-        </is>
-      </c>
-      <c r="B33" s="11" t="inlineStr">
-        <is>
-          <t>23/06</t>
-        </is>
-      </c>
-      <c r="C33" s="18" t="inlineStr">
-        <is>
-          <t>Beach Voley Training Camp</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="57" customFormat="1" customHeight="1" s="1">
-      <c r="A34" s="21" t="inlineStr">
-        <is>
-          <t>XXIII Trofeo SM La Reina – Regata homenaje a la Armada – XXXIII Copa Almirante Marcial Sánchez- Barcáiztegui (primera entrega, en el marco de la double handed off-shore (regata altura A2), regata puntuable para el circuito mediterráneo)</t>
-        </is>
-      </c>
-      <c r="B34" s="12" t="inlineStr">
-        <is>
-          <t>23-25/06</t>
-        </is>
-      </c>
-      <c r="C34" s="19" t="inlineStr">
-        <is>
-          <t>Real Club Náutico</t>
-        </is>
-      </c>
-    </row>
-    <row r="35" ht="57" customFormat="1" customHeight="1" s="1">
-      <c r="A35" s="20" t="inlineStr">
-        <is>
-          <t>XXIII Trofeo SM La Reina – Regata homenaje a la Armada – XXXIII Copa Almirante Marcial Sánchez- Barcáiztegui (en su formato habitual inshore (barlovento - sotavento) con las clases orc, orc promoción y la clase J80 que celebra su copa de España)</t>
-        </is>
-      </c>
-      <c r="B35" s="11" t="inlineStr">
-        <is>
-          <t>30/06 - 02/07</t>
-        </is>
-      </c>
-      <c r="C35" s="18" t="inlineStr">
-        <is>
-          <t>Real Club Náutico</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A36" s="21" t="inlineStr">
-        <is>
-          <t>Taronja Games 2023</t>
-        </is>
-      </c>
-      <c r="B36" s="12" t="inlineStr">
-        <is>
-          <t>06/09</t>
-        </is>
-      </c>
-      <c r="C36" s="19" t="inlineStr">
-        <is>
-          <t>Marina de València</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A37" s="20" t="inlineStr">
-        <is>
-          <t>Festival Internacional de Ajedrez "València cuna"</t>
-        </is>
-      </c>
-      <c r="B37" s="11" t="inlineStr">
-        <is>
-          <t>08/09</t>
-        </is>
-      </c>
-      <c r="C37" s="18" t="inlineStr">
-        <is>
-          <t>CDC Petxina</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A38" s="21" t="inlineStr">
-        <is>
-          <t>29º Trofeo de baloncesto Ciudad de València Masculino y Femenino</t>
-        </is>
-      </c>
-      <c r="B38" s="12" t="inlineStr">
-        <is>
-          <t>17/09</t>
-        </is>
-      </c>
-      <c r="C38" s="19" t="inlineStr">
-        <is>
-          <t>Pabellón Fuente de San Luis</t>
-        </is>
-      </c>
-    </row>
-    <row r="39" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A39" s="20" t="inlineStr">
-        <is>
-          <t>Vuelta ciclista València Élite-sub23 (masculino) / Etapa València</t>
-        </is>
-      </c>
-      <c r="B39" s="11" t="inlineStr">
-        <is>
-          <t>17-18/09</t>
-        </is>
-      </c>
-      <c r="C39" s="18" t="inlineStr">
-        <is>
-          <t>Plaza del Ayuntamiento</t>
-        </is>
-      </c>
-    </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="21" t="inlineStr">
-        <is>
-          <t>30ª Travesía a nado Puerto de València</t>
-        </is>
-      </c>
-      <c r="B40" s="12" t="inlineStr">
-        <is>
-          <t>25/09</t>
-        </is>
-      </c>
-      <c r="C40" s="19" t="inlineStr">
-        <is>
-          <t>Marina de València</t>
-        </is>
-      </c>
-    </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="20" t="inlineStr">
-        <is>
-          <t>Supercopa Nacional e Internacional de Judo absoluto</t>
-        </is>
-      </c>
-      <c r="B41" s="11" t="inlineStr">
-        <is>
-          <t>25/09</t>
-        </is>
-      </c>
-      <c r="C41" s="18" t="inlineStr">
-        <is>
-          <t>Velódromo Luis Puig</t>
-        </is>
-      </c>
-    </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="21" t="inlineStr">
-        <is>
-          <t>III Open Roundnet València</t>
-        </is>
-      </c>
-      <c r="B42" s="12" t="inlineStr">
-        <is>
-          <t>30/09</t>
-        </is>
-      </c>
-      <c r="C42" s="19" t="inlineStr">
-        <is>
-          <t>Beach Voley Training Camp</t>
-        </is>
-      </c>
-    </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" s="20" t="inlineStr">
-        <is>
-          <t>Campeonato autonómico de bádminton sub-19 y senior</t>
-        </is>
-      </c>
-      <c r="B43" s="11" t="inlineStr">
-        <is>
-          <t>15/10</t>
-        </is>
-      </c>
-      <c r="C43" s="18" t="inlineStr">
-        <is>
-          <t>Pabellón Fuensanta</t>
-        </is>
-      </c>
-    </row>
-    <row r="44" ht="30" customHeight="1">
-      <c r="A44" s="21" t="inlineStr">
-        <is>
-          <t>Día europeo del deporte</t>
-        </is>
-      </c>
-      <c r="B44" s="12" t="inlineStr">
-        <is>
-          <t>23/10</t>
-        </is>
-      </c>
-      <c r="C44" s="19" t="inlineStr">
-        <is>
-          <t>Ciudad de las Artes y las Ciencias</t>
-        </is>
-      </c>
-    </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" s="20" t="inlineStr">
-        <is>
-          <t>VESO 2023</t>
-        </is>
-      </c>
-      <c r="B45" s="11" t="inlineStr">
-        <is>
-          <t>22-24/09</t>
-        </is>
-      </c>
-      <c r="C45" s="18" t="inlineStr">
-        <is>
-          <t>Marina de València</t>
-        </is>
-      </c>
-    </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" s="21" t="inlineStr">
-        <is>
-          <t>Supercopa Nacional e Internacional de Judo junior</t>
-        </is>
-      </c>
-      <c r="B46" s="12" t="inlineStr">
-        <is>
-          <t>29-30/09</t>
-        </is>
-      </c>
-      <c r="C46" s="19" t="inlineStr">
-        <is>
-          <t>Velódromo Luis Puig</t>
-        </is>
-      </c>
-    </row>
-    <row r="47" ht="15" customHeight="1">
-      <c r="A47" s="20" t="inlineStr">
-        <is>
-          <t>II Open Beach Tennis València</t>
-        </is>
-      </c>
-      <c r="B47" s="11" t="inlineStr">
-        <is>
-          <t>01/10</t>
-        </is>
-      </c>
-      <c r="C47" s="18" t="inlineStr">
-        <is>
-          <t>Playa Malvarrosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="48" ht="30" customHeight="1">
-      <c r="A48" s="21" t="inlineStr">
-        <is>
-          <t>13º Paseo Saludable La Nau Gran</t>
-        </is>
-      </c>
-      <c r="B48" s="12" t="inlineStr">
-        <is>
-          <t>01/10</t>
-        </is>
-      </c>
-      <c r="C48" s="19" t="inlineStr">
-        <is>
-          <t>Rectorado de la Universidad de València</t>
-        </is>
-      </c>
-    </row>
-    <row r="49" ht="15" customHeight="1">
-      <c r="A49" s="20" t="inlineStr">
-        <is>
-          <t>III Copa de España de Fit Kid</t>
-        </is>
-      </c>
-      <c r="B49" s="11" t="inlineStr">
-        <is>
-          <t>06-08/10</t>
-        </is>
-      </c>
-      <c r="C49" s="18" t="inlineStr">
-        <is>
-          <t>Polideportivo Cabañal</t>
-        </is>
-      </c>
-    </row>
-    <row r="50" ht="15" customHeight="1">
-      <c r="A50" s="21" t="inlineStr">
-        <is>
-          <t>I Open Beach Volley València</t>
-        </is>
-      </c>
-      <c r="B50" s="12" t="inlineStr">
-        <is>
-          <t>28-29/10</t>
-        </is>
-      </c>
-      <c r="C50" s="19" t="inlineStr">
-        <is>
-          <t>Playa Malvarrosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="51" ht="15" customHeight="1">
-      <c r="A51" s="20" t="inlineStr">
-        <is>
-          <t>XXI Rallye Ciudad de València - Memorial Javi Sanz</t>
-        </is>
-      </c>
-      <c r="B51" s="11" t="inlineStr">
-        <is>
-          <t>26/11</t>
-        </is>
-      </c>
-      <c r="C51" s="18" t="inlineStr">
-        <is>
-          <t>Torres de Serranos</t>
-        </is>
-      </c>
-    </row>
-    <row r="52" ht="15" customHeight="1">
-      <c r="A52" s="21" t="inlineStr">
-        <is>
-          <t>XXVI Trofeo Internacional Ciclocross Ciudad de València</t>
-        </is>
-      </c>
-      <c r="B52" s="12" t="inlineStr">
-        <is>
-          <t>17/12</t>
-        </is>
-      </c>
-      <c r="C52" s="19" t="inlineStr">
-        <is>
-          <t>Tramo XIV Río Turia</t>
-        </is>
-      </c>
-    </row>
-    <row r="53" ht="15" customHeight="1">
-      <c r="A53" s="20" t="inlineStr">
-        <is>
-          <t>Campeonato de España de clubes sub-16 de atletismo - Pista cubierta</t>
-        </is>
-      </c>
-      <c r="B53" s="11" t="inlineStr">
-        <is>
-          <t>16/12</t>
-        </is>
-      </c>
-      <c r="C53" s="18" t="inlineStr">
-        <is>
-          <t>Velódromo Luis Puig</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="29" t="inlineStr">
-        <is>
-          <t>Fuente: Fundación Deportiva Municipal. Ayuntamiento de València.</t>
-        </is>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="29" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C31">
-    <cfRule type="timePeriod" priority="363" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="77" priority="363" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(C31)=MONTH(EDATE(TODAY(),0-1)),YEAR(C31)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6 A8 A10 A12 A16 A18 A20 A22 A24 A26 A28 A30 A32 A36 A38">
-    <cfRule type="timePeriod" priority="210" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="76" priority="210" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A6)=MONTH(EDATE(TODAY(),0-1)),YEAR(A6)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" priority="208" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="timePeriod" dxfId="75" priority="204" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(A5)=MONTH(EDATE(TODAY(),0-1)),YEAR(A5)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="timePeriod" dxfId="74" priority="212" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(A5)=MONTH(EDATE(TODAY(),0-1)),YEAR(A5)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="timePeriod" dxfId="73" priority="207" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(A4)=MONTH(EDATE(TODAY(),0-1)),YEAR(A4)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7 A9 A11 A13 A15 A17 A19 A21 A23 A25 A27 A29 A31 A33 A35 A37 A39">
+    <cfRule type="timePeriod" dxfId="72" priority="209" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(A7)=MONTH(EDATE(TODAY(),0-1)),YEAR(A7)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6 A8 A10 A12 A16 A18 A20 A22 A24 A26 A28 A30 A32 A36 A38">
+    <cfRule type="timePeriod" dxfId="71" priority="208" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A6)=MONTH(EDATE(TODAY(),0-1)),YEAR(A6)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" priority="202" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="timePeriod" dxfId="70" priority="206" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(A4)=MONTH(EDATE(TODAY(),0-1)),YEAR(A4)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="timePeriod" dxfId="69" priority="205" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(A4)=MONTH(EDATE(TODAY(),0-1)),YEAR(A4)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7 A9 A11 A13 A15 A17 A19 A21 A23 A25 A27 A29 A31 A33 A35 A37 A39">
+    <cfRule type="timePeriod" dxfId="68" priority="201" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(A7)=MONTH(EDATE(TODAY(),0-1)),YEAR(A7)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="timePeriod" dxfId="67" priority="203" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(A4)=MONTH(EDATE(TODAY(),0-1)),YEAR(A4)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6 A8 A10 A12 A16 A18 A20 A22 A24 A26 A28 A30 A32 A36 A38">
+    <cfRule type="timePeriod" dxfId="66" priority="202" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A6)=MONTH(EDATE(TODAY(),0-1)),YEAR(A6)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" priority="200" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6 A8 A10 A12 A16 A18 A20 A22 A24 A26 A28 A30 A32 A36 A38">
+    <cfRule type="timePeriod" dxfId="65" priority="200" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A6)=MONTH(EDATE(TODAY(),0-1)),YEAR(A6)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="timePeriod" priority="204" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(A5)=MONTH(EDATE(TODAY(),0-1)),YEAR(A5)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" priority="212" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(A5)=MONTH(EDATE(TODAY(),0-1)),YEAR(A5)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="timePeriod" priority="207" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(A4)=MONTH(EDATE(TODAY(),0-1)),YEAR(A4)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" priority="206" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(A4)=MONTH(EDATE(TODAY(),0-1)),YEAR(A4)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" priority="205" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(A4)=MONTH(EDATE(TODAY(),0-1)),YEAR(A4)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" priority="203" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(A4)=MONTH(EDATE(TODAY(),0-1)),YEAR(A4)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7 A9 A11 A13 A15 A17 A19 A21 A23 A25 A27 A29 A31 A33 A35 A37 A39">
-    <cfRule type="timePeriod" priority="209" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(A7)=MONTH(EDATE(TODAY(),0-1)),YEAR(A7)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" priority="201" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(A7)=MONTH(EDATE(TODAY(),0-1)),YEAR(A7)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A46 A48">
-    <cfRule type="timePeriod" priority="127" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="64" priority="127" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A46)=MONTH(EDATE(TODAY(),0-1)),YEAR(A46)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" priority="124" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40 A42 A44">
+    <cfRule type="timePeriod" dxfId="63" priority="182" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(A40)=MONTH(EDATE(TODAY(),0-1)),YEAR(A40)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41 A43 A49">
+    <cfRule type="timePeriod" dxfId="62" priority="181" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(A41)=MONTH(EDATE(TODAY(),0-1)),YEAR(A41)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40 A42 A44">
+    <cfRule type="timePeriod" dxfId="61" priority="180" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(A40)=MONTH(EDATE(TODAY(),0-1)),YEAR(A40)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40 A42 A44">
+    <cfRule type="timePeriod" dxfId="60" priority="179" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(A40)=MONTH(EDATE(TODAY(),0-1)),YEAR(A40)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41 A43 A49">
+    <cfRule type="timePeriod" dxfId="59" priority="178" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(A41)=MONTH(EDATE(TODAY(),0-1)),YEAR(A41)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40 A42 A44">
+    <cfRule type="timePeriod" dxfId="58" priority="177" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(A40)=MONTH(EDATE(TODAY(),0-1)),YEAR(A40)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="timePeriod" dxfId="57" priority="138" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C30)=MONTH(EDATE(TODAY(),0-1)),YEAR(C30)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C10 C34:C36 C26:C27 C20:C22 C13:C14 C38:C39 C16 C18 C29">
+    <cfRule type="timePeriod" dxfId="56" priority="155" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C7)=MONTH(EDATE(TODAY(),0-1)),YEAR(C7)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C5">
+    <cfRule type="timePeriod" dxfId="55" priority="157" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C4)=MONTH(EDATE(TODAY(),0-1)),YEAR(C4)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="timePeriod" dxfId="54" priority="156" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C5)=MONTH(EDATE(TODAY(),0-1)),YEAR(C5)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7 C9 C13 C21 C27 C35 C39 C29">
+    <cfRule type="timePeriod" dxfId="53" priority="154" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C7)=MONTH(EDATE(TODAY(),0-1)),YEAR(C7)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41 C49 C43:C44">
+    <cfRule type="timePeriod" dxfId="52" priority="153" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C41)=MONTH(EDATE(TODAY(),0-1)),YEAR(C41)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41 C43 C49">
+    <cfRule type="timePeriod" dxfId="51" priority="152" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C41)=MONTH(EDATE(TODAY(),0-1)),YEAR(C41)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="timePeriod" dxfId="50" priority="151" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C6)=MONTH(EDATE(TODAY(),0-1)),YEAR(C6)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="timePeriod" dxfId="49" priority="150" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C32)=MONTH(EDATE(TODAY(),0-1)),YEAR(C32)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46 A48">
+    <cfRule type="timePeriod" dxfId="48" priority="124" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A46)=MONTH(EDATE(TODAY(),0-1)),YEAR(A46)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" priority="125" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45 A47">
+    <cfRule type="timePeriod" dxfId="47" priority="123" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(A45)=MONTH(EDATE(TODAY(),0-1)),YEAR(A45)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45 A47">
+    <cfRule type="timePeriod" dxfId="46" priority="126" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(A45)=MONTH(EDATE(TODAY(),0-1)),YEAR(A45)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46 A48">
+    <cfRule type="timePeriod" dxfId="45" priority="125" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A46)=MONTH(EDATE(TODAY(),0-1)),YEAR(A46)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" priority="122" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46 A48">
+    <cfRule type="timePeriod" dxfId="44" priority="122" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A46)=MONTH(EDATE(TODAY(),0-1)),YEAR(A46)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40 A42 A44">
-    <cfRule type="timePeriod" priority="182" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(A40)=MONTH(EDATE(TODAY(),0-1)),YEAR(A40)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" priority="180" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(A40)=MONTH(EDATE(TODAY(),0-1)),YEAR(A40)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" priority="179" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(A40)=MONTH(EDATE(TODAY(),0-1)),YEAR(A40)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" priority="177" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(A40)=MONTH(EDATE(TODAY(),0-1)),YEAR(A40)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41 A43 A49">
-    <cfRule type="timePeriod" priority="181" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(A41)=MONTH(EDATE(TODAY(),0-1)),YEAR(A41)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" priority="178" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(A41)=MONTH(EDATE(TODAY(),0-1)),YEAR(A41)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="timePeriod" priority="138" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C30)=MONTH(EDATE(TODAY(),0-1)),YEAR(C30)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C10 C13:C14 C16 C18 C20:C22 C26:C27 C29 C34:C36 C38:C39">
-    <cfRule type="timePeriod" priority="155" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C7)=MONTH(EDATE(TODAY(),0-1)),YEAR(C7)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5">
-    <cfRule type="timePeriod" priority="157" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C4)=MONTH(EDATE(TODAY(),0-1)),YEAR(C4)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="timePeriod" priority="156" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C5)=MONTH(EDATE(TODAY(),0-1)),YEAR(C5)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7 C9 C13 C21 C27 C29 C35 C39">
-    <cfRule type="timePeriod" priority="154" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C7)=MONTH(EDATE(TODAY(),0-1)),YEAR(C7)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41 C43:C44 C49">
-    <cfRule type="timePeriod" priority="153" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C41)=MONTH(EDATE(TODAY(),0-1)),YEAR(C41)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41 C43 C49">
-    <cfRule type="timePeriod" priority="152" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C41)=MONTH(EDATE(TODAY(),0-1)),YEAR(C41)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="timePeriod" priority="151" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C6)=MONTH(EDATE(TODAY(),0-1)),YEAR(C6)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="timePeriod" priority="150" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C32)=MONTH(EDATE(TODAY(),0-1)),YEAR(C32)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45 A47">
-    <cfRule type="timePeriod" priority="123" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(A45)=MONTH(EDATE(TODAY(),0-1)),YEAR(A45)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" priority="126" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(A45)=MONTH(EDATE(TODAY(),0-1)),YEAR(A45)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C45:C48">
-    <cfRule type="timePeriod" priority="118" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="43" priority="118" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(C45)=MONTH(EDATE(TODAY(),0-1)),YEAR(C45)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45 C47">
-    <cfRule type="timePeriod" priority="117" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="42" priority="117" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(C45)=MONTH(EDATE(TODAY(),0-1)),YEAR(C45)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="timePeriod" priority="111" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="41" priority="111" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A50)=MONTH(EDATE(TODAY(),0-1)),YEAR(A50)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" priority="110" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="timePeriod" dxfId="40" priority="110" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A50)=MONTH(EDATE(TODAY(),0-1)),YEAR(A50)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" priority="113" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="timePeriod" dxfId="39" priority="113" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A50)=MONTH(EDATE(TODAY(),0-1)),YEAR(A50)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" priority="112" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="timePeriod" dxfId="38" priority="112" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A50)=MONTH(EDATE(TODAY(),0-1)),YEAR(A50)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="timePeriod" priority="107" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="37" priority="107" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(C50)=MONTH(EDATE(TODAY(),0-1)),YEAR(C50)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="timePeriod" priority="76" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="36" priority="76" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A14)=MONTH(EDATE(TODAY(),0-1)),YEAR(A14)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" priority="75" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="timePeriod" dxfId="35" priority="101" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(A52)=MONTH(EDATE(TODAY(),0-1)),YEAR(A52)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51 A53">
+    <cfRule type="timePeriod" dxfId="34" priority="100" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(A51)=MONTH(EDATE(TODAY(),0-1)),YEAR(A51)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="timePeriod" dxfId="33" priority="99" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(A52)=MONTH(EDATE(TODAY(),0-1)),YEAR(A52)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="timePeriod" dxfId="32" priority="98" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(A52)=MONTH(EDATE(TODAY(),0-1)),YEAR(A52)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51 A53">
+    <cfRule type="timePeriod" dxfId="31" priority="97" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(A51)=MONTH(EDATE(TODAY(),0-1)),YEAR(A51)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="timePeriod" dxfId="30" priority="96" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(A52)=MONTH(EDATE(TODAY(),0-1)),YEAR(A52)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51:C53">
+    <cfRule type="timePeriod" dxfId="29" priority="92" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C51)=MONTH(EDATE(TODAY(),0-1)),YEAR(C51)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51 C53">
+    <cfRule type="timePeriod" dxfId="28" priority="91" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C51)=MONTH(EDATE(TODAY(),0-1)),YEAR(C51)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="timePeriod" dxfId="27" priority="75" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A14)=MONTH(EDATE(TODAY(),0-1)),YEAR(A14)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" priority="73" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="timePeriod" dxfId="26" priority="73" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A14)=MONTH(EDATE(TODAY(),0-1)),YEAR(A14)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" priority="74" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="timePeriod" dxfId="25" priority="74" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A14)=MONTH(EDATE(TODAY(),0-1)),YEAR(A14)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="timePeriod" priority="101" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(A52)=MONTH(EDATE(TODAY(),0-1)),YEAR(A52)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" priority="99" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(A52)=MONTH(EDATE(TODAY(),0-1)),YEAR(A52)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" priority="98" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(A52)=MONTH(EDATE(TODAY(),0-1)),YEAR(A52)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" priority="96" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(A52)=MONTH(EDATE(TODAY(),0-1)),YEAR(A52)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51 A53">
-    <cfRule type="timePeriod" priority="100" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(A51)=MONTH(EDATE(TODAY(),0-1)),YEAR(A51)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" priority="97" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(A51)=MONTH(EDATE(TODAY(),0-1)),YEAR(A51)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51:C53">
-    <cfRule type="timePeriod" priority="92" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C51)=MONTH(EDATE(TODAY(),0-1)),YEAR(C51)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51 C53">
-    <cfRule type="timePeriod" priority="91" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C51)=MONTH(EDATE(TODAY(),0-1)),YEAR(C51)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="timePeriod" priority="46" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="24" priority="46" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A34)=MONTH(EDATE(TODAY(),0-1)),YEAR(A34)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" priority="45" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="timePeriod" dxfId="23" priority="45" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A34)=MONTH(EDATE(TODAY(),0-1)),YEAR(A34)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" priority="44" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="timePeriod" dxfId="22" priority="44" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A34)=MONTH(EDATE(TODAY(),0-1)),YEAR(A34)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" priority="43" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="timePeriod" dxfId="21" priority="43" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A34)=MONTH(EDATE(TODAY(),0-1)),YEAR(A34)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="timePeriod" priority="1" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="20" priority="1" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(C42)=MONTH(EDATE(TODAY(),0-1)),YEAR(C42)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="timePeriod" priority="2" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="19" priority="2" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(C40)=MONTH(EDATE(TODAY(),0-1)),YEAR(C40)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="timePeriod" priority="7" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="18" priority="7" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(C23)=MONTH(EDATE(TODAY(),0-1)),YEAR(C23)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" priority="8" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="timePeriod" dxfId="17" priority="24" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C25)=MONTH(EDATE(TODAY(),0-1)),YEAR(C25)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="timePeriod" dxfId="16" priority="25" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C25)=MONTH(EDATE(TODAY(),0-1)),YEAR(C25)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="timePeriod" dxfId="15" priority="22" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C19)=MONTH(EDATE(TODAY(),0-1)),YEAR(C19)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="timePeriod" dxfId="14" priority="23" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C19)=MONTH(EDATE(TODAY(),0-1)),YEAR(C19)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="timePeriod" dxfId="13" priority="21" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C17)=MONTH(EDATE(TODAY(),0-1)),YEAR(C17)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="timePeriod" dxfId="12" priority="20" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C17)=MONTH(EDATE(TODAY(),0-1)),YEAR(C17)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="timePeriod" dxfId="11" priority="19" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C15)=MONTH(EDATE(TODAY(),0-1)),YEAR(C15)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="timePeriod" dxfId="10" priority="18" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C15)=MONTH(EDATE(TODAY(),0-1)),YEAR(C15)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="timePeriod" dxfId="9" priority="17" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C28)=MONTH(EDATE(TODAY(),0-1)),YEAR(C28)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="timePeriod" dxfId="8" priority="16" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C37)=MONTH(EDATE(TODAY(),0-1)),YEAR(C37)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="timePeriod" dxfId="7" priority="15" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C37)=MONTH(EDATE(TODAY(),0-1)),YEAR(C37)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="timePeriod" dxfId="6" priority="14" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C33)=MONTH(EDATE(TODAY(),0-1)),YEAR(C33)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="timePeriod" dxfId="5" priority="13" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C33)=MONTH(EDATE(TODAY(),0-1)),YEAR(C33)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="timePeriod" dxfId="4" priority="12" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C12)=MONTH(EDATE(TODAY(),0-1)),YEAR(C12)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="timePeriod" dxfId="3" priority="11" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C11)=MONTH(EDATE(TODAY(),0-1)),YEAR(C11)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="timePeriod" dxfId="2" priority="10" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C11)=MONTH(EDATE(TODAY(),0-1)),YEAR(C11)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="timePeriod" dxfId="1" priority="9" stopIfTrue="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C24)=MONTH(EDATE(TODAY(),0-1)),YEAR(C24)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="timePeriod" dxfId="0" priority="8" stopIfTrue="1" timePeriod="lastMonth">
       <formula>AND(MONTH(C23)=MONTH(EDATE(TODAY(),0-1)),YEAR(C23)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="timePeriod" priority="24" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C25)=MONTH(EDATE(TODAY(),0-1)),YEAR(C25)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" priority="25" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C25)=MONTH(EDATE(TODAY(),0-1)),YEAR(C25)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="timePeriod" priority="22" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C19)=MONTH(EDATE(TODAY(),0-1)),YEAR(C19)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" priority="23" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C19)=MONTH(EDATE(TODAY(),0-1)),YEAR(C19)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="timePeriod" priority="21" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C17)=MONTH(EDATE(TODAY(),0-1)),YEAR(C17)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" priority="20" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C17)=MONTH(EDATE(TODAY(),0-1)),YEAR(C17)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="timePeriod" priority="19" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C15)=MONTH(EDATE(TODAY(),0-1)),YEAR(C15)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" priority="18" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C15)=MONTH(EDATE(TODAY(),0-1)),YEAR(C15)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="timePeriod" priority="17" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C28)=MONTH(EDATE(TODAY(),0-1)),YEAR(C28)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="timePeriod" priority="16" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C37)=MONTH(EDATE(TODAY(),0-1)),YEAR(C37)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" priority="15" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C37)=MONTH(EDATE(TODAY(),0-1)),YEAR(C37)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="timePeriod" priority="14" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C33)=MONTH(EDATE(TODAY(),0-1)),YEAR(C33)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" priority="13" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C33)=MONTH(EDATE(TODAY(),0-1)),YEAR(C33)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="timePeriod" priority="12" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C12)=MONTH(EDATE(TODAY(),0-1)),YEAR(C12)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="timePeriod" priority="11" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C11)=MONTH(EDATE(TODAY(),0-1)),YEAR(C11)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" priority="10" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C11)=MONTH(EDATE(TODAY(),0-1)),YEAR(C11)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="timePeriod" priority="9" dxfId="0" stopIfTrue="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(C24)=MONTH(EDATE(TODAY(),0-1)),YEAR(C24)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="79" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="B4 B14 B16 B20:B21 B25 B49" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>